--- a/score.xlsx
+++ b/score.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\score\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\S7Casino\money website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A2E320-1F51-4731-A616-1359ED413F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C7856-711F-4BC3-BF31-3EC9A687A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{E404BAE1-C50F-4C93-994E-AE199436E213}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>小隊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,11 +526,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05F74F4-60F7-404A-B2C4-3C591C981592}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -578,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C25" si="0">D3+E3+F3</f>
+        <f t="shared" ref="C3:C26" si="0">D3+E3+F3</f>
         <v>200</v>
       </c>
       <c r="D3" s="1">
@@ -1054,8 +1061,25 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>10014435</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1313</v>
+      </c>
+      <c r="F26" s="1">
+        <v>13123</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
